--- a/participants/participant_48/participant_48_task_orders.xlsx
+++ b/participants/participant_48/participant_48_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498731518728294" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498731543201008" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498731543221061" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498731543691032" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498731544481359" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16502912916678443" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1650291294078193" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502912940811768" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502912941502395" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16502912942189958" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1649873151838829.csv</t>
+          <t>go_stims-16502912916118422.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16498731518568602.csv</t>
+          <t>GNG_stims-16502912916358461.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498731518578277.csv</t>
+          <t>go_stims-16502912916378427.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-164987315187186.csv</t>
+          <t>GNG_stims-16502912916668482.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16498731535421379.csv</t>
+          <t>ZB-match_6-16502912920330925.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16498731529661024.csv</t>
+          <t>TB-1650291294025538.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16498731537801018.csv</t>
+          <t>TB-16502912930063553.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_5-16498731523601024.csv</t>
+          <t>ZB-match_2-16502912923651266.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_8-1649873152902098.csv</t>
+          <t>OB-16502912924060864.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16498731542661307.csv</t>
+          <t>TB-16502912940614295.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_8-16498731520881016.csv</t>
+          <t>OB-16502912926110876.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-1649873153153131.csv</t>
+          <t>ZB-match_7-16502912922571216.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16498731543031058.csv</t>
+          <t>OB-16502912929858072.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1649873154336137.csv</t>
+          <t>MM_stims-16502912941012332.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731543251057.csv</t>
+          <t>ZM_stims-1650291294084175.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498731543521361.csv</t>
+          <t>MM_stims-16502912941336412.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1649873154337111.csv</t>
+          <t>ZM_stims-16502912941021998.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498731543681355.csv</t>
+          <t>MM_stims-16502912941492343.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731543531234.csv</t>
+          <t>ZM_stims-16502912941346672.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498731544161353.csv</t>
+          <t>SAT_stims-16502912941649873.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16498731544001508.csv</t>
+          <t>SAT_stims-165029129415227.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498731544321356.csv</t>
+          <t>vSAT_stims-16502912942029493.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16498731543761.csv</t>
+          <t>vSAT_stims-1650291294181613.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_48/participant_48_task_orders.xlsx
+++ b/participants/participant_48/participant_48_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16502912916678443" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1650291294078193" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502912940811768" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502912941502395" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16502912942189958" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16504778967632313" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504778981282294" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16504778981292317" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16504778981772342" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504778982532625" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502912916118422.csv</t>
+          <t>go_stims-16504778967252347.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912916358461.csv</t>
+          <t>GNG_stims-16504778967462292.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16502912916378427.csv</t>
+          <t>go_stims-165047789674823.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912916668482.csv</t>
+          <t>GNG_stims-16504778967622664.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_6-16502912920330925.csv</t>
+          <t>ZB-match_1-1650477896811229.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-1650291294025538.csv</t>
+          <t>TB-165047789795223.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16502912930063553.csv</t>
+          <t>TB-16504778980212657.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_2-16502912923651266.csv</t>
+          <t>ZB-match_4-1650477896773234.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16502912924060864.csv</t>
+          <t>OB-1650477897166232.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16502912940614295.csv</t>
+          <t>TB-16504778981072323.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16502912926110876.csv</t>
+          <t>ZB-match_0-16504778969502285.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_7-16502912922571216.csv</t>
+          <t>OB-16504778974632626.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16502912929858072.csv</t>
+          <t>OB-16504778970052655.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502912941012332.csv</t>
+          <t>MM_stims-1650477898144264.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1650291294084175.csv</t>
+          <t>ZM_stims-16504778981312313.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16502912941336412.csv</t>
+          <t>MM_stims-16504778981602643.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912941021998.csv</t>
+          <t>ZM_stims-1650477898144264.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502912941492343.csv</t>
+          <t>MM_stims-1650477898176264.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912941346672.csv</t>
+          <t>ZM_stims-16504778981612337.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912941649873.csv</t>
+          <t>vSAT_stims-16504778982222645.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-165029129415227.csv</t>
+          <t>SAT_stims-1650477898180231.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912942029493.csv</t>
+          <t>SAT_stims-16504778982062647.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650291294181613.csv</t>
+          <t>vSAT_stims-16504778982382667.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_48/participant_48_task_orders.xlsx
+++ b/participants/participant_48/participant_48_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16504778967632313" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504778981282294" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16504778981292317" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16504778981772342" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504778982532625" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509961993064287" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16509962010264375" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16509962010264375" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509962010744338" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509962011384366" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504778967252347.csv</t>
+          <t>go_stims-16509961992664.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778967462292.csv</t>
+          <t>GNG_stims-1650996199290432.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-165047789674823.csv</t>
+          <t>go_stims-1650996199290432.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778967622664.csv</t>
+          <t>GNG_stims-16509961993064287.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_1-1650477896811229.csv</t>
+          <t>OB-16509962003383956.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-165047789795223.csv</t>
+          <t>OB-16509962004183986.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16504778980212657.csv</t>
+          <t>ZB-match_1-16509961997303967.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_4-1650477896773234.csv</t>
+          <t>TB-1650996200890432.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-1650477897166232.csv</t>
+          <t>ZB-match_5-1650996200050438.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16504778981072323.csv</t>
+          <t>TB-16509962010023983.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_0-16504778969502285.csv</t>
+          <t>ZB-match_3-16509961997704012.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16504778974632626.csv</t>
+          <t>TB-1650996200626404.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16504778970052655.csv</t>
+          <t>OB-16509962004504342.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1650477898144264.csv</t>
+          <t>MM_stims-16509962010424006.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778981312313.csv</t>
+          <t>ZM_stims-16509962010264375.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504778981602643.csv</t>
+          <t>MM_stims-1650996201058439.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1650477898144264.csv</t>
+          <t>ZM_stims-16509962010424006.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1650477898176264.csv</t>
+          <t>MM_stims-16509962010744338.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778981612337.csv</t>
+          <t>ZM_stims-1650996201058439.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778982222645.csv</t>
+          <t>vSAT_stims-16509962011064448.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-1650477898180231.csv</t>
+          <t>SAT_stims-1650996201090411.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778982062647.csv</t>
+          <t>vSAT_stims-16509962011224008.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778982382667.csv</t>
+          <t>SAT_stims-16509962010744338.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_48/participant_48_task_orders.xlsx
+++ b/participants/participant_48/participant_48_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509961993064287" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16509962010264375" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16509962010264375" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509962010744338" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509962011384366" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16511688017936182" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16511688044212458" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1651168804423249" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16511688044790208" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511688045670817" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16509961992664.csv</t>
+          <t>go_stims-1651168801762368.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1650996199290432.csv</t>
+          <t>GNG_stims-16511688017779617.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1650996199290432.csv</t>
+          <t>go_stims-16511688017779617.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961993064287.csv</t>
+          <t>GNG_stims-16511688017936182.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16509962003383956.csv</t>
+          <t>OB-16511688034182434.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16509962004183986.csv</t>
+          <t>ZB-match_3-16511688020225523.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_1-16509961997303967.csv</t>
+          <t>TB-16511688044022477.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-1650996200890432.csv</t>
+          <t>OB-16511688025447352.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_5-1650996200050438.csv</t>
+          <t>ZB-match_4-16511688018899717.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16509962010023983.csv</t>
+          <t>ZB-match_4-16511688020069253.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_3-16509961997704012.csv</t>
+          <t>OB-16511688022810228.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-1650996200626404.csv</t>
+          <t>TB-16511688040432467.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16509962004504342.csv</t>
+          <t>TB-16511688037862477.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509962010424006.csv</t>
+          <t>MM_stims-16511688044460244.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509962010264375.csv</t>
+          <t>ZM_stims-16511688044262452.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1650996201058439.csv</t>
+          <t>MM_stims-16511688044620302.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509962010424006.csv</t>
+          <t>ZM_stims-16511688044470263.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509962010744338.csv</t>
+          <t>MM_stims-16511688044780216.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1650996201058439.csv</t>
+          <t>ZM_stims-1651168804463024.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509962011064448.csv</t>
+          <t>vSAT_stims-1651168804551253.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-1650996201090411.csv</t>
+          <t>SAT_stims-16511688045100248.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509962011224008.csv</t>
+          <t>vSAT_stims-1651168804525414.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16509962010744338.csv</t>
+          <t>SAT_stims-16511688044860225.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_48/participant_48_task_orders.xlsx
+++ b/participants/participant_48/participant_48_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16511688017936182" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16511688044212458" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1651168804423249" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16511688044790208" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511688045670817" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512556291226792" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16512556336367197" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16512556336437001" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512556337015522" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512556337776427" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1651168801762368.csv</t>
+          <t>go_stims-1651255629085417.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511688017779617.csv</t>
+          <t>GNG_stims-1651255629106341.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16511688017779617.csv</t>
+          <t>go_stims-16512556291080334.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511688017936182.csv</t>
+          <t>GNG_stims-16512556291216798.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16511688034182434.csv</t>
+          <t>TB-1651255632866564.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_3-16511688020225523.csv</t>
+          <t>OB-16512556310413184.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16511688044022477.csv</t>
+          <t>TB-16512556330822542.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16511688025447352.csv</t>
+          <t>ZB-match_0-16512556292675722.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_4-16511688018899717.csv</t>
+          <t>OB-1651255630673402.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_4-16511688020069253.csv</t>
+          <t>TB-1651255633621946.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16511688022810228.csv</t>
+          <t>OB-165125563003412.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16511688040432467.csv</t>
+          <t>ZB-match_1-1651255629568353.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16511688037862477.csv</t>
+          <t>ZB-match_7-16512556293940644.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511688044460244.csv</t>
+          <t>MM_stims-16512556336681576.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16511688044262452.csv</t>
+          <t>ZM_stims-16512556336456974.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16511688044620302.csv</t>
+          <t>MM_stims-16512556336836991.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511688044470263.csv</t>
+          <t>ZM_stims-16512556336696982.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16511688044780216.csv</t>
+          <t>MM_stims-16512556336995518.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1651168804463024.csv</t>
+          <t>ZM_stims-16512556336847005.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651168804551253.csv</t>
+          <t>vSAT_stims-1651255633746462.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16511688045100248.csv</t>
+          <t>SAT_stims-16512556337312913.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651168804525414.csv</t>
+          <t>SAT_stims-16512556337065053.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16511688044860225.csv</t>
+          <t>vSAT_stims-1651255633762201.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_48/participant_48_task_orders.xlsx
+++ b/participants/participant_48/participant_48_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512556291226792" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16512556336367197" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16512556336437001" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512556337015522" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512556337776427" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="vSAT_TO-16515890462110953" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1651589047682658" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="TOL_TO-1651589047729506" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_TO-16515890477607546" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="RS_TO-16515890477607546" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1651255629085417.csv</t>
+          <t>SAT_stims-16515890461642554.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1651255629106341.csv</t>
+          <t>vSAT_stims-165158904619547.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16512556291080334.csv</t>
+          <t>SAT_stims-1651589046148629.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16512556291216798.csv</t>
+          <t>vSAT_stims-16515890461798472.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-1651255632866564.csv</t>
+          <t>ZB-match_2-16515890462579937.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16512556310413184.csv</t>
+          <t>TB-16515890473522236.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16512556330822542.csv</t>
+          <t>ZB-match_7-1651589046413727.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_0-16512556292675722.csv</t>
+          <t>TB-16515890473835163.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-1651255630673402.csv</t>
+          <t>OB-1651589046444978.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-1651255633621946.csv</t>
+          <t>TB-16515890476670325.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-165125563003412.csv</t>
+          <t>OB-16515890468221488.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_1-1651255629568353.csv</t>
+          <t>ZB-match_9-1651589046226721.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_7-16512556293940644.csv</t>
+          <t>OB-16515890469961047.csv</t>
         </is>
       </c>
     </row>
@@ -606,6 +606,158 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MM_stims-1651589047698256.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ZM_stims-1651589047682658.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MM_stims-16515890477139227.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ZM_stims-1651589047698256.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MM_stims-1651589047729506.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515890477139227.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>go_stims-1651589047729506.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GNG_stims-165158904774513.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>go_stims-165158904774513.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GNG_stims-16515890477607546.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -632,7 +784,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,159 +794,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MM_stims-16512556336681576.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512556336456974.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MM_stims-16512556336836991.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512556336696982.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MM_stims-16512556336995518.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512556336847005.csv</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>vSAT_stims-1651255633746462.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>SAT_stims-16512556337312913.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>SAT_stims-16512556337065053.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>vSAT_stims-1651255633762201.csv</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
